--- a/public/downloads/general-account-import-template.xlsx
+++ b/public/downloads/general-account-import-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevohngentry/Desktop/invictus/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{648C6D96-5ECE-584F-8DCD-6E30F4360709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79AD418-3220-E04D-B7B3-9EB278F85F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="4460" windowWidth="27640" windowHeight="16940" xr2:uid="{BAD56F22-FF8B-294C-89A7-6D7F690EC2C2}"/>
+    <workbookView xWindow="3080" yWindow="1860" windowWidth="27640" windowHeight="16940" xr2:uid="{BAD56F22-FF8B-294C-89A7-6D7F690EC2C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Client ID*</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>Growth%(3)</t>
+  </si>
+  <si>
+    <t>Federal Tax Withholding (%)</t>
+  </si>
+  <si>
+    <t>State Tax Withholding (%)</t>
+  </si>
+  <si>
+    <t>12/31 Value</t>
   </si>
 </sst>
 </file>
@@ -483,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0773A9-000A-C142-9AC0-9D9174053A82}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,11 +503,14 @@
     <col min="1" max="6" width="20.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
-    <col min="9" max="20" width="20.83203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="11" width="30.5" style="1" customWidth="1"/>
+    <col min="12" max="20" width="20.83203125" style="1" customWidth="1"/>
+    <col min="21" max="23" width="21.6640625" style="1" customWidth="1"/>
+    <col min="24" max="35" width="16.5" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,41 +536,51 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="AC1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/downloads/general-account-import-template.xlsx
+++ b/public/downloads/general-account-import-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevohngentry/Desktop/invictus/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79AD418-3220-E04D-B7B3-9EB278F85F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16895955-5CBE-F441-A8E0-4C42CD4BBBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="1860" windowWidth="27640" windowHeight="16940" xr2:uid="{BAD56F22-FF8B-294C-89A7-6D7F690EC2C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Client ID*</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>12/31 Value</t>
+  </si>
+  <si>
+    <t>Account Owner Name</t>
   </si>
 </sst>
 </file>
@@ -492,95 +495,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0773A9-000A-C142-9AC0-9D9174053A82}">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="20.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
-    <col min="9" max="11" width="30.5" style="1" customWidth="1"/>
-    <col min="12" max="20" width="20.83203125" style="1" customWidth="1"/>
-    <col min="21" max="23" width="21.6640625" style="1" customWidth="1"/>
-    <col min="24" max="35" width="16.5" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="7" width="20.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5" style="1" customWidth="1"/>
+    <col min="10" max="12" width="30.5" style="1" customWidth="1"/>
+    <col min="13" max="21" width="20.83203125" style="1" customWidth="1"/>
+    <col min="22" max="24" width="21.6640625" style="1" customWidth="1"/>
+    <col min="25" max="36" width="16.5" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/downloads/general-account-import-template.xlsx
+++ b/public/downloads/general-account-import-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevohngentry/Desktop/invictus/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16895955-5CBE-F441-A8E0-4C42CD4BBBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37DFD62-8556-C04C-A36D-CEE1D5EDA64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="1860" windowWidth="27640" windowHeight="16940" xr2:uid="{BAD56F22-FF8B-294C-89A7-6D7F690EC2C2}"/>
   </bookViews>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>Client ID*</t>
-  </si>
-  <si>
-    <t>Account Number*</t>
-  </si>
-  <si>
     <t>Account Value</t>
   </si>
   <si>
@@ -108,6 +102,12 @@
   </si>
   <si>
     <t>Account Owner Name</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>Account Number</t>
   </si>
 </sst>
 </file>
@@ -497,15 +497,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0773A9-000A-C142-9AC0-9D9174053A82}">
   <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="20.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="1" customWidth="1"/>
     <col min="10" max="12" width="30.5" style="1" customWidth="1"/>
     <col min="13" max="21" width="20.83203125" style="1" customWidth="1"/>
     <col min="22" max="24" width="21.6640625" style="1" customWidth="1"/>
@@ -515,76 +515,76 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="AD1" s="2"/>
     </row>

--- a/public/downloads/general-account-import-template.xlsx
+++ b/public/downloads/general-account-import-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevohngentry/Desktop/invictus/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37DFD62-8556-C04C-A36D-CEE1D5EDA64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB26F6-3B21-DA45-855F-943691B09798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="1860" windowWidth="27640" windowHeight="16940" xr2:uid="{BAD56F22-FF8B-294C-89A7-6D7F690EC2C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Account Value</t>
   </si>
@@ -56,42 +56,6 @@
     <t>Systematic Withdraw Frequency</t>
   </si>
   <si>
-    <t>Cash% (1)</t>
-  </si>
-  <si>
-    <t>Cash% (2)</t>
-  </si>
-  <si>
-    <t>Cash% (3)</t>
-  </si>
-  <si>
-    <t>Income%(1)</t>
-  </si>
-  <si>
-    <t>Income%(2)</t>
-  </si>
-  <si>
-    <t>Income%(3)</t>
-  </si>
-  <si>
-    <t>Annuities%(1)</t>
-  </si>
-  <si>
-    <t>Annuities%(2)</t>
-  </si>
-  <si>
-    <t>Annuities%(3)</t>
-  </si>
-  <si>
-    <t>Growth%(1)</t>
-  </si>
-  <si>
-    <t>Growth%(2)</t>
-  </si>
-  <si>
-    <t>Growth%(3)</t>
-  </si>
-  <si>
     <t>Federal Tax Withholding (%)</t>
   </si>
   <si>
@@ -108,6 +72,18 @@
   </si>
   <si>
     <t>Account Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash% </t>
+  </si>
+  <si>
+    <t>Income%</t>
+  </si>
+  <si>
+    <t>Annuities%</t>
+  </si>
+  <si>
+    <t>Growth%</t>
   </si>
 </sst>
 </file>
@@ -495,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0773A9-000A-C142-9AC0-9D9174053A82}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,21 +483,21 @@
     <col min="8" max="8" width="29.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="31.33203125" style="1" customWidth="1"/>
     <col min="10" max="12" width="30.5" style="1" customWidth="1"/>
-    <col min="13" max="21" width="20.83203125" style="1" customWidth="1"/>
-    <col min="22" max="24" width="21.6640625" style="1" customWidth="1"/>
-    <col min="25" max="36" width="16.5" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="15" width="20.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="1" customWidth="1"/>
+    <col min="17" max="28" width="16.5" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -542,51 +518,27 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
